--- a/api.xlsx
+++ b/api.xlsx
@@ -339,16 +339,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index.php/api/deleteItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>userId
 itemHash(文件的哈希值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.php/api/deleteCartItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -895,13 +895,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>

--- a/api.xlsx
+++ b/api.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,11 +340,6 @@
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId
-itemHash(文件的哈希值)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -440,7 +435,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -482,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,7 +724,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -895,13 +890,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
